--- a/backend/static/Snapdeal_Unsorted.xlsx
+++ b/backend/static/Snapdeal_Unsorted.xlsx
@@ -493,22 +493,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -518,11 +518,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Remote Control Car For Kids With Mist Smoke Effect 2 Wd Monster Truck Rock Crawler Climbing Rc Toy Vehicle Car For Boys And Girls (Multicolor, Pack of 1)</t>
+          <t>Ethnic Basket Pack of 1 Crepe Printed Nayra Women's Kurti - ( Navy Blue )</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>886</v>
+        <v>198</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -531,39 +531,39 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/remote-control-car-for-kids/653268836094#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/ethnic-basket-pack-of-1/6917529650209328129#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -573,11 +573,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Thar Die Cast Toy Car for Kids Metal Cars with Opening Doors Pull Back Action 1:32 Scale Mini Super Car - Color As Per Stock</t>
+          <t>AK FASHION MALL Pack of 1 Crepe Printed Straight Women's Kurti - ( Multicolor )</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>282</v>
+        <v>198</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -586,39 +586,39 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/thar-die-cast-toy-car/682074796921#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/ak-fashion-mall-pack-of/634469424261#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -628,11 +628,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TOY JUNCTION Cyber Truck Multi Color</t>
+          <t>Ethnic Basket Crepe Printed Straight Women's Kurti - Navy Blue ( Pack of 1 )</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>582</v>
+        <v>198</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -641,39 +641,39 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/toy-junction-cyber-truck-multi/637894147432#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/ethnic-basket-crepe-printed-straight/662526158821#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -683,11 +683,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Toya Car Miniature Push Back Toyota Police Innova Car Toy|Car Model Showpiece|Models Toy Car for Kids</t>
+          <t>MAUKA - Turquoise Rayon Women's A-line Kurti ( Pack of 1 )</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -696,39 +696,39 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/toya-car-miniature-push-back/685408425192#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/mauka-turquoise-rayon-womens-front/656224501695#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -738,11 +738,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Plastic Indian Fortuner (Suv) Model Toy For Kids, Pack Of 1 (Multicolor)</t>
+          <t>Rayon Short Kurti For Women (Pack of 1)</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -751,39 +751,39 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/plastic-indian-fortuner-suv-model/634263485134#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/estela-pack-of-1-rayon/682252532825#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -793,11 +793,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Braintastic Model Diecast Car Toy Vehicle Pull Back Friction Car with Openable Doors Light &amp; Music Toys for Kids Age 3+ Years (AK Metal Series BMW Blue)</t>
+          <t>RIAANA Women Cotton Printed Anarkali Kurti ( Pink )</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>654</v>
+        <v>307</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -806,39 +806,39 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/braintastic-model-diecast-car-toy/672158352362#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/riaana-women-cotton-printed-anarkali/651423302794#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -848,11 +848,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ECLET Rechargeable 360° Rotating &amp; Rolling Small Stunt Car Toy with USB Cable &amp; Remote Controller | MULTI COLOURED Color, Power Source: Lithium Battery in Car (Included)( Any random colour will send )</t>
+          <t>Frionkandy - Blue Rayon Women's Straight Kurti ( Pack of 1 )</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -861,39 +861,39 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/eclet-rechargeable-360-rotating-rolling/673575764076#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/frionkandy-blue-rayon-womens-straight/649794083935#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -903,11 +903,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Monster Trucks Toy Friction Powered Racing Car Truck Pull Back 360 Degree Rotating Off-Road Vehicle Toy Car for Gift-Any Colour</t>
+          <t>Gobya Rayon Printed Anarkali Women's Kurti - Black ( Pack of 1 )</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>187</v>
+        <v>392</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -916,39 +916,39 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/monster-trucks-toy-friction-powered/669931812739#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/gobya-rayon-printed-anarkali-womens/682196206753#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -958,11 +958,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FEDIFU Mini Metal Die Cast Car Set of-6 Toy Vehicle Play Set Free Wheel High Speed Unbreakable Car for Kids, Small Racing Car for Exciting Playtime Adventures, Movie Vehicles Car for Kids</t>
+          <t>MAUKA - Multicolor Rayon Women's Straight Kurti ( Pack of 1 )</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>543</v>
+        <v>375</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -976,34 +976,34 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/fedifu-mini-metal-die-cast/637563073216#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/mauka-multicolor-rayon-womens-straight/625981877671#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1013,11 +1013,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Toy Cloud Hummer Army Car 1:32 Scale Die-Cast Metal Toy with Opening Doors and Pull Back Action Realistic Toy Car</t>
+          <t>YAGNIK FASHION Women Georgette Self Design Flared Kurti ( Green )</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>302</v>
+        <v>215</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1026,39 +1026,39 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/toy-cloud-hummer-army-car/665510942863#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/yagnik-fashion-women-georgette-self/622167151366#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1068,11 +1068,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Remote Control RC Rechargeable 360° Rotating Small Stunt Car Toys for Kids ASSORTED COLORS</t>
+          <t>AMTHI 100% Cotton Printed Straight Women's Kurti - Black ( Pack of 1 )</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1081,39 +1081,39 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/remote-control-rc-rechargeable-360/650675023286#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/amthi-cotton-blend-printed-straight/647519305967#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1123,11 +1123,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kidsaholic 2 Way Fast Racing Car with Remote Control  (Random Color)</t>
+          <t>RUIVASTRA Women's Viscose Rayon Colorblock Straight Kurti - ( Yellow &amp; Black )</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1136,39 +1136,39 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/kidsaholic-2-way-fast-racing/681392614104#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/ruivastra-womens-viscose-rayon-colorblock/666418435947#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1178,11 +1178,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FREEDY Monster Truck Toys for Kids Push &amp; Go Toys 4wd Monster Truck Combo Set OF 4</t>
+          <t>MAUKA - Blue Rayon Women's A-line Kurti ( Pack of 1 )</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1191,39 +1191,39 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/freedy-monster-truck-toys-for/637746007644#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/mauka-blue-rayon-womens-aline/628589767641#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1233,11 +1233,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Model Diecast Jeep Pull Back Friction Car Vehicle Toys for Kids Age 3+ Years</t>
+          <t>AK FASHION MALL Women Cotton Blend Printed Alia Cut Kurti ( Blue )</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1246,39 +1246,39 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/model-diecast-jeep-pull-back/679327182223#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/ak-fashion-mall-women-cotton/634739914458#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>OLA Uber Swift Taxi Model Car Openable Doors Pull Back Action Collectible for Kids Car Gift Toys for Kids (multicolor)</t>
+          <t>Rangrasiya - Light Grey Cotton Women's Flared Kurti ( Pack of 1 )</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1301,39 +1301,39 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.4</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/ola-uber-swift-taxi-model/628032365555#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/rangrasiya-grey-cotton-anarkali-kurti/671152031921#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1343,11 +1343,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lamborghini Car Toy Die-Cast Metal Car Model Car Pull Back Car Super Car With Openable Doors With Sound &amp; Light For Birthdays Gift</t>
+          <t>MAUKA - Multicolor Rayon Women's Front Slit Kurti ( Pack of 1 )</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>723</v>
+        <v>368</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1356,39 +1356,39 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/lamborghini-car-toy-diecast-metal/666421640747#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/mauka-multicolor-rayon-womens-front/629726149208#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1398,11 +1398,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bestselling Bugatti (Blue) Die Cast Super Sports Model Vehicle Toy Car with Pull Back Function Along with Opening Doors and Back Feature for Kids Boy Girl 3+</t>
+          <t>AK FASHION MALL Pack of 1 Crepe Printed Straight Women's Kurti - ( Multicolor )</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1416,34 +1416,34 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/bestselling-bugatti-blue-die-cast/622394740306#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/ak-fashion-mall-pack-of/680054435539#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1453,11 +1453,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SUNTAP Engineered Thar Car Toy With Realistic Detailing, Dual Opening Doors, And Pull-Back Action: A Miniature Masterpiece Car Toy Car (Random Color), For Kid</t>
+          <t>MIALO FASHION Women Viscose Printed Straight Kurti ( Black )</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>419</v>
+        <v>290</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1466,39 +1466,39 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/suntap-engineered-thar-car-toy/643414670543#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/mialo-fashion-women-viscose-printed/620409513185#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Lamborghini Toy Die-cast Metal Model Car Pull Back car Super car with Openable Doors with Sound and Light for Birthdays Gift Party Decorations Great for Kids</t>
+          <t>Radiksa - Blue Cotton Women's Straight Kurti ( Pack of 1 )</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>772</v>
+        <v>389</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1521,39 +1521,39 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/lamborghini-toy-diecast-metal-model/670445045676#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/radiksa-turquoise-cotton-straight-kurti/618611089447#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>women</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cars</t>
+          <t>kurtis</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1563,11 +1563,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Freedy Stunt Car Electric Drift Rotating Wheel Vehicle Remote Control Toy Set of 1  (Multicolor)</t>
+          <t>Art India Women Viscose Rayon Printed Flared Kurti ( Green )</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>417</v>
+        <v>241</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-11-22 14:32:27</t>
+          <t>2025-11-22 15:15:33</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>https://www.snapdeal.com/product/freedy-stunt-car-electric-drift/640817111647#bcrumbSearch:toy%20cars</t>
+          <t>https://www.snapdeal.com/product/art-india-women-viscose-rayon/635254607465#bcrumbSearch:women%20kurtis%20nan</t>
         </is>
       </c>
     </row>
